--- a/report/reliability/by-modalidade/Presencial.xlsx
+++ b/report/reliability/by-modalidade/Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7880919410390096</v>
+        <v>0.7545960676058275</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8031279470777739</v>
+        <v>0.7806339451743093</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8964577407016249</v>
+        <v>0.8877117514889729</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.25370540467140784</v>
+        <v>0.21490901967185372</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.07944111496134</v>
+        <v>3.5585904382271214</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.004947711472095162</v>
+        <v>0.005362739197679861</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4901391194371985</v>
+        <v>1.8910667031663473</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7675274137393965</v>
+        <v>0.6419200709556407</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.21898573547389974</v>
+        <v>0.13818987621264506</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7637173149067072</v>
+        <v>0.7561381913685475</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7751610868958412</v>
+        <v>0.7771442607591146</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8732916265618595</v>
+        <v>0.8863557081894393</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.23862938078705104</v>
+        <v>0.22516697686308215</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.447628687551696</v>
+        <v>3.4872077488616857</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.005525024329457522</v>
+        <v>0.00545421399556837</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03843768417315857</v>
+        <v>0.05656289538618241</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1969811803147931</v>
+        <v>0.1812530789077741</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7668843121640615</v>
+        <v>0.7311776486233657</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7801515984829196</v>
+        <v>0.7553693501942456</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8766499333434947</v>
+        <v>0.8705531223432333</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.24391292711877383</v>
+        <v>0.20465516478153328</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.548588905352164</v>
+        <v>3.0877952161515188</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.005451403823556081</v>
+        <v>0.005849322932130167</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03872183390518001</v>
+        <v>0.05706755061667704</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2163840663488505</v>
+        <v>0.12723940864404543</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7660218090419488</v>
+        <v>0.736457752968013</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7769639231692966</v>
+        <v>0.7601689122500959</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8741598902338276</v>
+        <v>0.8725138003467969</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24051924193485286</v>
+        <v>0.2089442686709671</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.4835795814282315</v>
+        <v>3.1696012363618187</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.005473330796661292</v>
+        <v>0.005728330845802623</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03886218628953849</v>
+        <v>0.05682268911468922</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2163840663488505</v>
+        <v>0.12723940864404543</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.767172057127761</v>
+        <v>0.7413968744191056</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7806095691547209</v>
+        <v>0.7577809452717965</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8766474475634456</v>
+        <v>0.8680320789942791</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.24440606034714543</v>
+        <v>0.20679482579024183</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.558083942618402</v>
+        <v>3.128494354509436</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.00544277031645582</v>
+        <v>0.005737176299172383</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03900938156463308</v>
+        <v>0.04523071800195801</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.221587404598949</v>
+        <v>0.1322084347252797</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7695308405340445</v>
+        <v>0.7199904667892906</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7910801849691301</v>
+        <v>0.754348200361979</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8599980926628389</v>
+        <v>0.8655211807695102</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2560794570235252</v>
+        <v>0.20375840167387732</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.786525394215193</v>
+        <v>3.0708026624414937</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.0053932322836368835</v>
+        <v>0.006133174806687426</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.036296076439462206</v>
+        <v>0.04529953302478515</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.221587404598949</v>
+        <v>0.12820562094420163</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7713372406773027</v>
+        <v>0.7218511585258034</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7912327421739168</v>
+        <v>0.7544510113294169</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8601925150469242</v>
+        <v>0.8656547367481717</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.25625539046617035</v>
+        <v>0.2038484427572206</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.790023159824541</v>
+        <v>3.072507100982415</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.005351685548403978</v>
+        <v>0.006093762822126137</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03630196803440781</v>
+        <v>0.04533231192143185</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2249156933469047</v>
+        <v>0.1322084347252797</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7888763605280772</v>
+        <v>0.7559128291154202</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8076702161699058</v>
+        <v>0.7874253230442199</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.887046484889185</v>
+        <v>0.8904544156155301</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2762873510826847</v>
+        <v>0.23587462611384463</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.199402713848045</v>
+        <v>3.7042291881644047</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.004935166580549022</v>
+        <v>0.005446617581185525</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.038338292220384075</v>
+        <v>0.05374109048500537</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.22689305273274282</v>
+        <v>0.1812530789077741</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7961584115013409</v>
+        <v>0.7507635178322515</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.807071113261119</v>
+        <v>0.7767377117863595</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8867980080029593</v>
+        <v>0.8757905593183878</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2755177620910253</v>
+        <v>0.22475796315526425</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.183256986049202</v>
+        <v>3.4790367777790423</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.004726118449872751</v>
+        <v>0.00535180551423668</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03860666598816868</v>
+        <v>0.05470571502140927</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.22689305273274282</v>
+        <v>0.1812530789077741</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7774741974691736</v>
+        <v>0.7599201605312761</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7943735280164755</v>
+        <v>0.7775306197228611</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8976258102203521</v>
+        <v>0.8819372540067927</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2599164669411549</v>
+        <v>0.22555666164757698</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.8631870709726686</v>
+        <v>3.4950006097659854</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.005252157316768638</v>
+        <v>0.005084582646247072</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04546689264080403</v>
+        <v>0.05607330884763852</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2163840663488505</v>
+        <v>0.1812530789077741</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.775607723974184</v>
+        <v>0.7379919605940567</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.792270054522416</v>
+        <v>0.7699151093135033</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8964731234113446</v>
+        <v>0.8878855949052926</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.257456274946803</v>
+        <v>0.21804858245923592</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.813942437143271</v>
+        <v>3.3462219401557967</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.005275851590953013</v>
+        <v>0.005745549936795796</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04559794772579165</v>
+        <v>0.061644872348239205</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.21228512833966176</v>
+        <v>0.12820562094420163</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7658022164910375</v>
+        <v>0.7393472437910936</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7825522215521499</v>
+        <v>0.7710106150138525</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8719537580053406</v>
+        <v>0.8880203031389031</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2465136865592229</v>
+        <v>0.21910662092407834</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.5988053183989033</v>
+        <v>3.3670146546770896</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.005487629405251601</v>
+        <v>0.005685344523303632</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04074162084742815</v>
+        <v>0.06169662317492081</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1969811803147931</v>
+        <v>0.14165214364227902</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7679278353195161</v>
+        <v>0.7250301470376349</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7847874317592981</v>
+        <v>0.7591599956983754</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8737851361379358</v>
+        <v>0.8631951541785378</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24897085675848443</v>
+        <v>0.20803235354614327</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.64656877697571</v>
+        <v>3.1521341228163027</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.0054420251931258925</v>
+        <v>0.005994655579990072</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04092881055091936</v>
+        <v>0.057156493619639676</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1969811803147931</v>
+        <v>0.12723940864404543</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7270187517425999</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7605304116467994</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8646876176477949</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20927236735103252</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.175895598588791</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.005953755140094298</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.0575354003756516</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.12820562094420163</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>4217.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6387598526418014</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6849875388867933</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6701117421080941</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5584020401948451</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.43751482096277</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1131209389357788</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5993701172097623</v>
+        <v>0.3025830131266149</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6419017079132048</v>
+        <v>0.4254347392975118</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6204308468721513</v>
+        <v>0.3619982892265005</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5026398364342879</v>
+        <v>0.2826132787020651</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.9395304718994546</v>
+        <v>0.9658362989323843</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2337732606958056</v>
+        <v>0.18167105662684527</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6208268088640636</v>
+        <v>0.5680201301305166</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6695762539532532</v>
+        <v>0.6239075439847428</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6527231205587796</v>
+        <v>0.5998757932137522</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5429288232585762</v>
+        <v>0.46720684654456257</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.514109556556794</v>
+        <v>3.4391459074733097</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0499175988025673</v>
+        <v>1.1108624609014752</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5963018341001632</v>
+        <v>0.5246791778259685</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6378803454435488</v>
+        <v>0.582406067901282</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6159755872137868</v>
+        <v>0.5545542424185071</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4965345220518133</v>
+        <v>0.40506220780597196</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.905145838273654</v>
+        <v>3.941399762752076</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2627019100675354</v>
+        <v>1.2310765756913298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6020581180311075</v>
+        <v>0.6243538656665382</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.542687086123317</v>
+        <v>0.6032041307616712</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5632707373781016</v>
+        <v>0.6292017156913495</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.466227220352261</v>
+        <v>0.5917930939771625</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.8849893289068058</v>
+        <v>0.23582443653618032</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.6695182627706744</v>
+        <v>0.4245633481172809</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6013379386488029</v>
+        <v>0.6629799640791589</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5412523984918488</v>
+        <v>0.6325846461544057</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5617116538172005</v>
+        <v>0.6632512876232707</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4565142844155485</v>
+        <v>0.5258951947548033</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.9350248992174531</v>
+        <v>0.8854092526690391</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.7626068556291308</v>
+        <v>1.6698030449949213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3931714000061776</v>
+        <v>0.6616920643138793</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3778974064080964</v>
+        <v>0.6317134063888901</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.31990655480817887</v>
+        <v>0.6623688471494685</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2604507492836904</v>
+        <v>0.5149769649292396</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.61180934313493</v>
+        <v>0.9354685646500593</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3367463734258433</v>
+        <v>1.7629073428230442</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.41047437333939835</v>
+        <v>0.2456075730188206</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.38417318769815256</v>
+        <v>0.32182725840031534</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.32661799110409223</v>
+        <v>0.2474816955736219</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.24153848500621392</v>
+        <v>0.21307731498108612</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.724922930993597</v>
+        <v>0.9105575326215896</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.690111785145752</v>
+        <v>0.2854152046753662</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5273482728912233</v>
+        <v>0.42038996606247103</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5113973518472344</v>
+        <v>0.4293923661236255</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.42233813815953153</v>
+        <v>0.39120122003007124</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3907921983389424</v>
+        <v>0.2757690622425603</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.4676310173108844</v>
+        <v>2.6130486358244367</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5346899224068453</v>
+        <v>1.335851728234345</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5234709280068593</v>
+        <v>0.4345094550350706</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5314595240656922</v>
+        <v>0.4216641396149904</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.44552497404525765</v>
+        <v>0.37018876331055794</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.40311955648399234</v>
+        <v>0.24950030214207125</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.332226701446526</v>
+        <v>2.7262158956109133</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3644954436592815</v>
+        <v>1.6894696853273243</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6087867436239107</v>
+        <v>0.5447605852749772</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.620693247795923</v>
+        <v>0.4943125008811469</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6050452417228772</v>
+        <v>0.40808768924408106</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5057243516075839</v>
+        <v>0.3952646648229536</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.1595921271045766</v>
+        <v>1.4683274021352313</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3237355230288697</v>
+        <v>1.5347208954421492</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
+        <v>28</v>
+      </c>
+      <c r="B38" t="n" s="84">
+        <v>4215.0</v>
+      </c>
+      <c r="C38" t="n" s="85">
+        <v>0.513981264224926</v>
+      </c>
+      <c r="D38" t="n" s="86">
+        <v>0.48407489433768897</v>
+      </c>
+      <c r="E38" t="n" s="87">
+        <v>0.3981240937736802</v>
+      </c>
+      <c r="F38" t="n" s="88">
+        <v>0.3782162501156054</v>
+      </c>
+      <c r="G38" t="n" s="89">
+        <v>2.332858837485172</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3645104310423657</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
         <v>29</v>
       </c>
-      <c r="B38" t="n" s="84">
-        <v>4217.0</v>
-      </c>
-      <c r="C38" t="n" s="85">
-        <v>0.589198964603138</v>
-      </c>
-      <c r="D38" t="n" s="86">
-        <v>0.600655717464624</v>
-      </c>
-      <c r="E38" t="n" s="87">
-        <v>0.5821924426845897</v>
-      </c>
-      <c r="F38" t="n" s="88">
-        <v>0.4887191897430597</v>
-      </c>
-      <c r="G38" t="n" s="89">
-        <v>1.9691723974389377</v>
-      </c>
-      <c r="H38" t="n" s="90">
-        <v>1.2579908165833076</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
+      <c r="B39" t="n" s="84">
+        <v>4215.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6159674431950956</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5912297813665247</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5773627461767245</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5020665492496276</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.1601423487544484</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3238084804376642</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>4215.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6007984716456506</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5792313768994405</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5629283669712752</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.49056973801463954</v>
+      </c>
+      <c r="G40" t="n" s="89">
+        <v>1.969632265717675</v>
+      </c>
+      <c r="H40" t="n" s="90">
+        <v>1.258112066928115</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.0346217690301162</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.058572444866018494</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.008062603746739389</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.33696940953284327</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.45695992411667063</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.10481384870761205</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.0346217690301162</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.006876926725160067</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.04647853924590942</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.26606592364239984</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.1882855110267963</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4576713303296182</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.020393644771164336</v>
+        <v>0.03416370106761566</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.05430400758833294</v>
+        <v>0.9658362989323843</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02015650936684847</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3217927436566279</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.46265117382025134</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.12070192079677496</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.020393644771164336</v>
+        <v>0.03416370106761566</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.02347640502727057</v>
+        <v>0.058600237247924084</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.06023239269622955</v>
+        <v>0.008066429418742586</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.323452691486839</v>
+        <v>0.33712930011862396</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.07137775669907517</v>
+        <v>0.4571767497034401</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5010671093194214</v>
+        <v>0.10486358244365362</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7642874081100308</v>
+        <v>0.03416370106761566</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.014939530471899455</v>
+        <v>0.006880189798339265</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.003082760256106237</v>
+        <v>0.0465005931198102</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.06070666350486128</v>
+        <v>0.2661921708185053</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.10315390087740099</v>
+        <v>0.18837485172004745</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.05382973677970121</v>
+        <v>0.4578884934756821</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.7642874081100308</v>
+        <v>0.7641755634638197</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.006876926725160067</v>
+        <v>0.23582443653618032</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.01138249940716149</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.06426369456959924</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.05335546597106948</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.0998340052169789</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.0898743182357126</v>
+        <v>0.7641755634638197</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.18164571970595209</v>
+        <v>0.01494661921708185</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.048138487076120465</v>
+        <v>0.0030842230130486356</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.417832582404553</v>
+        <v>0.06073546856465006</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2321555608252312</v>
+        <v>0.10320284697508897</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.03035333175243064</v>
+        <v>0.05385527876631079</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.0898743182357126</v>
+        <v>0.7641755634638197</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.2122361868626986</v>
+        <v>0.006880189798339265</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.1949253023476405</v>
+        <v>0.011387900355871887</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.12141332700972256</v>
+        <v>0.06429418742586003</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.14915816931467868</v>
+        <v>0.05338078291814947</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.23239269622954706</v>
+        <v>0.09988137603795967</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.44486601849656154</v>
+        <v>0.08944246737841044</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.12781598292625088</v>
+        <v>0.9105575326215896</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.06497510078254684</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.239506758359023</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.12283613943561773</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.1797486364714252</v>
+        <v>0.08944246737841044</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.11097936921982451</v>
+        <v>0.18173190984578885</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.07612046478539246</v>
+        <v>0.04816132858837485</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4635997154375148</v>
+        <v>0.4180308422301305</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.16955181408584302</v>
+        <v>0.23226571767497034</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.03036773428232503</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.1809343134930045</v>
+        <v>0.08944246737841044</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.08442020393644771</v>
+        <v>0.21233689205219455</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.31041024424946645</v>
+        <v>0.19501779359430604</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.24258951861512923</v>
+        <v>0.12147093712930011</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.18164571970595209</v>
+        <v>0.14922894424673785</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.232502965599051</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.20203936447711643</v>
+        <v>0.44460260972716487</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.07849181882855111</v>
+        <v>0.12787663107947805</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.39008774009959685</v>
+        <v>0.06500593119810201</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.20701920796774959</v>
+        <v>0.23962040332147094</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.122361868626986</v>
+        <v>0.1228944246737841</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.17983392645314353</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.11055753262158956</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.07615658362989323</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4638196915776987</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.16963226571767498</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.18102016607354685</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.08398576512455516</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3105575326215896</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.24270462633451959</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.18173190984578885</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.20213523131672598</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.07805456702253856</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3902728351126928</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.20711743772241992</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.12241992882562278</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8649910667565293</v>
+        <v>0.8737546219024664</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8675972192074397</v>
+        <v>0.9859666697067611</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8734973190186612</v>
+        <v>0.979488078102134</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6209505002890388</v>
+        <v>0.9590493569203966</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.5527114613002855</v>
+        <v>70.25892280051235</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.0034548540771238987</v>
+        <v>5.399098716683626E-4</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6990751719231683</v>
+        <v>0.6855674179517596</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9854703932200635</v>
+        <v>1.2716660862231868</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6243705075832179</v>
+        <v>0.9553299768526547</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8238604285936758</v>
+        <v>0.9825879035224654</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8271236943191056</v>
+        <v>0.983323329561538</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.779315093904007</v>
+        <v>0.967193758009083</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6146179374544375</v>
+        <v>0.967193758009083</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.784482703175422</v>
+        <v>58.96400802486727</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.00467870275642676</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.01234573422936875</v>
-      </c>
+        <v>5.245495056679317E-4</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6085229302339746</v>
+        <v>0.9671937580090829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8294298324711591</v>
+        <v>0.6061955081240389</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8345245524930005</v>
+        <v>0.977154739263371</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7894708264919771</v>
+        <v>0.9553299768526546</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6270137806130128</v>
+        <v>0.9553299768526546</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.043192600870296</v>
+        <v>42.77275495029278</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.004603647106578428</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.011846602962129697</v>
-      </c>
+        <v>0.001812670928955327</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6402180849324611</v>
+        <v>0.9553299768526547</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8260995772553676</v>
+        <v>0.626342818552375</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8283890899601585</v>
+        <v>0.9767854808378471</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7801142618471685</v>
+        <v>0.9546243358994517</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6167180115574779</v>
+        <v>0.954624335899452</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.827135348025588</v>
+        <v>42.07648989044424</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.004688773234873519</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.011853811588946044</v>
-      </c>
+        <v>0.001839757686320519</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6085229302339746</v>
+        <v>0.954624335899452</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8320446952714531</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8336012383896187</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7895153124146982</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6254522715312268</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.009660109980126</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.004488048353623809</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012571217177172337</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6402180849324611</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>4215.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9705787397481672</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9835026932096983</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9688854239645481</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9629108936685659</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.23582443653618032</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4245633481172809</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8452828451431619</v>
+        <v>0.9908718879687642</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8516121395987573</v>
+        <v>0.987512399021183</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8002021667299591</v>
+        <v>0.9794291146603341</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7252796331518155</v>
+        <v>0.9715665968143075</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.43751482096277</v>
+        <v>0.8854092526690391</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1131209389357788</v>
+        <v>1.6698030449949213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8488596955241109</v>
+        <v>0.9917510473243373</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8406228929511462</v>
+        <v>0.9877508906617126</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7817182024712284</v>
+        <v>0.9799492307095472</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7119065770400369</v>
+        <v>0.9719430769225226</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.9395304718994546</v>
+        <v>0.9354685646500593</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2337732606958056</v>
+        <v>1.7629073428230442</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>4217.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.839130959016716</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8497503677127032</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7976743932671422</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7251341267555813</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.514109556556794</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0499175988025673</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>4217.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8494964441600178</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8420072125349546</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7831212290528672</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7081581035745219</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.905145838273654</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2627019100675354</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7641755634638197</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.23582443653618032</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7641755634638197</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.01494661921708185</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0030842230130486356</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.06073546856465006</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.10320284697508897</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.05385527876631079</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0346217690301162</v>
+        <v>0.7641755634638197</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.058572444866018494</v>
+        <v>0.006880189798339265</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.008062603746739389</v>
+        <v>0.011387900355871887</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.33696940953284327</v>
+        <v>0.06429418742586003</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.45695992411667063</v>
+        <v>0.05338078291814947</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.10481384870761205</v>
+        <v>0.09988137603795967</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0346217690301162</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.006876926725160067</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04647853924590942</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.26606592364239984</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1882855110267963</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4576713303296182</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.020393644771164336</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.05430400758833294</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02015650936684847</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3217927436566279</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.46265117382025134</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.12070192079677496</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.020393644771164336</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02347640502727057</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.06023239269622955</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.323452691486839</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07137775669907517</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5010671093194214</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8088507645320124</v>
+        <v>0.6975452168237967</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.822016083934995</v>
+        <v>0.8215377011956525</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6978160505628103</v>
+        <v>0.7680345788608128</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6978160505628104</v>
+        <v>0.6054409380178134</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.618485209836433</v>
+        <v>4.603424402239285</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.005589757173242678</v>
+        <v>0.00423137359978635</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.6683661370642637</v>
+        <v>2.083274021352313</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3961063402728975</v>
+        <v>0.9901420096885085</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6978160505628104</v>
+        <v>0.6131390127825709</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6978160505628105</v>
+        <v>0.808519562070152</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6978160505628105</v>
+        <v>0.8217155121063677</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.4869472404230786</v>
+        <v>0.6973829499998871</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6978160505628105</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6978160505628105</v>
-      </c>
+        <v>0.6973829499998871</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.609012942262355</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.0056004024603423285</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6978160505628105</v>
+        <v>0.6973829499998871</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.4869472404230786</v>
+        <v>0.2849630576754403</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6978160505628105</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.4869472404230786</v>
-      </c>
+        <v>0.6718031150587505</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5058008512709822</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.505800851270982</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.046951527827602</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.006330080346673889</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6978160505628105</v>
+        <v>0.5058008512709821</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.400723744327381</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7601812465311861</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6131390127825709</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6131390127825709</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.169815685953186</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.00615622150063592</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6131390127825709</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>4217.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9011253053453234</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9213620489695704</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7696633325636245</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6978160505628105</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.61180934313493</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3367463734258433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B18" t="n" s="314">
+        <v>4215.0</v>
+      </c>
+      <c r="C18" t="n" s="315">
+        <v>0.6595058083975361</v>
+      </c>
+      <c r="D18" t="n" s="316">
+        <v>0.8227639118958672</v>
+      </c>
+      <c r="E18" t="n" s="317">
+        <v>0.6676027365271583</v>
+      </c>
+      <c r="F18" t="n" s="318">
+        <v>0.5997585249249144</v>
+      </c>
+      <c r="G18" t="n" s="319">
+        <v>0.9105575326215896</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2854152046753662</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>4217.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9393678634613291</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9213620489695704</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7696633325636246</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.6978160505628105</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.724922930993597</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.690111785145752</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B19" t="n" s="314">
+        <v>4215.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9052769709929599</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8971533930101978</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8364982218389257</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7313492903806179</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.6130486358244367</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.335851728234345</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>4215.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9309887304907257</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8554750201789654</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7529106037921782</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7043571288712795</v>
+      </c>
+      <c r="G20" t="n" s="319">
+        <v>2.7262158956109133</v>
+      </c>
+      <c r="H20" t="n" s="320">
+        <v>1.6894696853273243</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
-        <v>0.0898743182357126</v>
-      </c>
-      <c r="C23" t="n" s="340">
-        <v>0.18164571970595209</v>
-      </c>
-      <c r="D23" t="n" s="341">
-        <v>0.048138487076120465</v>
-      </c>
-      <c r="E23" t="n" s="342">
-        <v>0.417832582404553</v>
-      </c>
-      <c r="F23" t="n" s="343">
-        <v>0.2321555608252312</v>
-      </c>
-      <c r="G23" t="n" s="344">
-        <v>0.03035333175243064</v>
-      </c>
-      <c r="H23" t="n" s="345">
+      <c r="B25" t="n" s="339">
+        <v>0.08944246737841044</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.9105575326215896</v>
+      </c>
+      <c r="D25" t="n" s="341">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
-        <v>0.0898743182357126</v>
-      </c>
-      <c r="C24" t="n" s="340">
-        <v>0.2122361868626986</v>
-      </c>
-      <c r="D24" t="n" s="341">
-        <v>0.1949253023476405</v>
-      </c>
-      <c r="E24" t="n" s="342">
-        <v>0.12141332700972256</v>
-      </c>
-      <c r="F24" t="n" s="343">
-        <v>0.14915816931467868</v>
-      </c>
-      <c r="G24" t="n" s="344">
-        <v>0.23239269622954706</v>
-      </c>
-      <c r="H24" t="n" s="345">
+      <c r="B26" t="n" s="339">
+        <v>0.08944246737841044</v>
+      </c>
+      <c r="C26" t="n" s="340">
+        <v>0.18173190984578885</v>
+      </c>
+      <c r="D26" t="n" s="341">
+        <v>0.04816132858837485</v>
+      </c>
+      <c r="E26" t="n" s="342">
+        <v>0.4180308422301305</v>
+      </c>
+      <c r="F26" t="n" s="343">
+        <v>0.23226571767497034</v>
+      </c>
+      <c r="G26" t="n" s="344">
+        <v>0.03036773428232503</v>
+      </c>
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
+        <v>0.08944246737841044</v>
+      </c>
+      <c r="C27" t="n" s="340">
+        <v>0.21233689205219455</v>
+      </c>
+      <c r="D27" t="n" s="341">
+        <v>0.19501779359430604</v>
+      </c>
+      <c r="E27" t="n" s="342">
+        <v>0.12147093712930011</v>
+      </c>
+      <c r="F27" t="n" s="343">
+        <v>0.14922894424673785</v>
+      </c>
+      <c r="G27" t="n" s="344">
+        <v>0.232502965599051</v>
+      </c>
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8964685614694132</v>
+        <v>0.7092970056948804</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.897110140414279</v>
+        <v>0.840704373981783</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8134177067792254</v>
+        <v>0.7872205876217389</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8134177067792252</v>
+        <v>0.6375776971699136</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.719130767856337</v>
+        <v>5.277636272860622</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.0031764345023799403</v>
+        <v>0.0035777761991340885</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.0643822622717574</v>
+        <v>2.78212732305259</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.229217193529833</v>
+        <v>0.7658446430732478</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8134177067792253</v>
+        <v>0.602209548019493</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8134177067792252</v>
+        <v>0.8401505620785248</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8134177067792252</v>
+        <v>0.8427191914771714</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.661648365701974</v>
+        <v>0.7281890317984545</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8134177067792252</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8134177067792252</v>
-      </c>
+        <v>0.7281890317984547</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.358054802692947</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.004869662551894394</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8134177067792252</v>
+        <v>0.7281890317984547</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.661648365701974</v>
+        <v>0.2963485817610134</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8134177067792252</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.661648365701974</v>
-      </c>
+        <v>0.7517238288386063</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6022095480194931</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6022095480194931</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.0277727633794664</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.005076005050064141</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8134177067792252</v>
+        <v>0.602209548019493</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.31296103931735875</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7360447584110079</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5823345116917931</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5823345116917931</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.788521091606555</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.005577930329020079</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5823345116917931</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>4217.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9546756832548433</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9522126093418489</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8587974360934012</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8134177067792254</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.1595921271045766</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3237355230288697</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9496860043924308</v>
+        <v>0.6833112032039799</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9522126093418489</v>
+        <v>0.8361701285740348</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8587974360934011</v>
+        <v>0.6864647572065847</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8134177067792253</v>
+        <v>0.6375650620447711</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.9691723974389377</v>
+        <v>0.9658362989323843</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2579908165833076</v>
+        <v>0.18167105662684527</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>4215.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.919730594529611</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8843908456984435</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8081229118728563</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7433411574214049</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.4391459074733097</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1108624609014752</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>4215.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9355241518395547</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8919983423784339</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8234173998082227</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7492914976455495</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.941399762752076</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2310765756913298</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.1809343134930045</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.08442020393644771</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.31041024424946645</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.24258951861512923</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.18164571970595209</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.03416370106761566</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9658362989323843</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.20203936447711643</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.07849181882855111</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.39008774009959685</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.20701920796774959</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.122361868626986</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.03416370106761566</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.058600237247924084</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.008066429418742586</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.33712930011862396</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4571767497034401</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.10486358244365362</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.03416370106761566</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.006880189798339265</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.0465005931198102</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2661921708185053</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.18837485172004745</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.4578884934756821</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9825901635498848</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9833255923176121</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9671981362835739</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.967198136283574</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>58.97214528083264</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>5.243554888289499E-4</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.9100071140621295</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.7019423062493542</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9671981362835739</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5953251401079864</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.598211450193376</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.42674870634083806</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.42674870634083795</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.4888713241860378</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.012361825195548074</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.9005931198102017</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.225214501061705</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.4267487063408379</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9671981362835739</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9671981362835739</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9354722348304187</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9671981362835739</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9671981362835739</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9671981362835739</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.42674870634083795</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.42674870634083795</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.18211445836357898</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.42674870634083795</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.42674870634083795</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.42674870634083795</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9354722348304187</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9671981362835739</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9354722348304187</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9671981362835739</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.18211445836357898</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.42674870634083795</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.18211445836357898</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.42674870634083795</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
-        <v>4217.0</v>
-      </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9913110203987858</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9917656316599134</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.97536412972643</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9671981362835742</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.8849893289068058</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.6695182627706744</v>
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
+        <v>4215.0</v>
+      </c>
+      <c r="C17" t="n" s="545">
+        <v>0.8639401324598911</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8446149141297583</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5517531897073261</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4267487063408379</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.4683274021352313</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5347208954421492</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
-        <v>4217.0</v>
-      </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9922080776390003</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9917656316599134</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.97536412972643</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.967198136283574</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.9350248992174531</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.7626068556291308</v>
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
+        <v>4215.0</v>
+      </c>
+      <c r="C18" t="n" s="545">
+        <v>0.8241212400018967</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8446149141297583</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5517531897073259</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4267487063408379</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.332858837485172</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3645104310423657</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7642874081100308</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.014939530471899455</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.003082760256106237</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.06070666350486128</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.10315390087740099</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.05382973677970121</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.44460260972716487</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.12787663107947805</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.06500593119810201</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.23962040332147094</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.1228944246737841</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7642874081100308</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.006876926725160067</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.01138249940716149</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.06426369456959924</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.05335546597106948</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.0998340052169789</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.17983392645314353</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.11055753262158956</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.07615658362989323</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4638196915776987</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.16963226571767498</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5955743980363126</v>
+        <v>0.8964345545162138</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5984609503635372</v>
+        <v>0.8970750902732894</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4270026943015027</v>
+        <v>0.8133600777006402</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.42700269430150284</v>
+        <v>0.8133600777006404</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.4904178084431883</v>
+        <v>8.715821006355311</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.012351269881775675</v>
+        <v>0.003178254595833076</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.8999288593787051</v>
+        <v>2.0648873072360616</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2253034688448567</v>
+        <v>1.2292900742818178</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.4270026943015027</v>
+        <v>0.8133600777006404</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.4270026943015027</v>
+        <v>0.8133600777006403</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.4270026943015027</v>
+        <v>0.8133600777006403</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.18233130094074246</v>
+        <v>0.6615546159971913</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.4270026943015027</v>
+        <v>0.8133600777006403</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.4270026943015027</v>
+        <v>0.8133600777006403</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.4270026943015027</v>
+        <v>0.8133600777006403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.18233130094074246</v>
+        <v>0.6615546159971913</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.4270026943015027</v>
+        <v>0.8133600777006403</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.18233130094074246</v>
+        <v>0.6615546159971913</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.4270026943015027</v>
+        <v>0.8133600777006403</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.864003574236013</v>
+        <v>0.9546593835151836</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8446900894119401</v>
+        <v>0.952197478914075</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5519664823348629</v>
+        <v>0.8587533678821386</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.42700269430150267</v>
+        <v>0.8133600777006403</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.4676310173108844</v>
+        <v>2.1601423487544484</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5346899224068453</v>
+        <v>1.3238084804376642</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.824208951823391</v>
+        <v>0.9496721255159143</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8446900894119401</v>
+        <v>0.952197478914075</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5519664823348629</v>
+        <v>0.8587533678821386</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4270026943015028</v>
+        <v>0.8133600777006406</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.332226701446526</v>
+        <v>1.969632265717675</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3644954436592815</v>
+        <v>1.258112066928115</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.44486601849656154</v>
+        <v>0.18102016607354685</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.12781598292625088</v>
+        <v>0.08398576512455516</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.06497510078254684</v>
+        <v>0.3105575326215896</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.239506758359023</v>
+        <v>0.24270462633451959</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.12283613943561773</v>
+        <v>0.18173190984578885</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.1797486364714252</v>
+        <v>0.20213523131672598</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.11097936921982451</v>
+        <v>0.07805456702253856</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.07612046478539246</v>
+        <v>0.3902728351126928</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4635997154375148</v>
+        <v>0.20711743772241992</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.16955181408584302</v>
+        <v>0.12241992882562278</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8117575575998003</v>
+        <v>0.7835399219459442</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.823296378313198</v>
+        <v>0.8120878229906099</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9040345895230462</v>
+        <v>0.8998908179914791</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3178342348178654</v>
+        <v>0.3017556956832339</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.659193572005263</v>
+        <v>4.3216349036817805</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.004471500143424262</v>
+        <v>0.004745222960644674</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.4544937159117857</v>
+        <v>1.8334045077105576</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8376513066871868</v>
+        <v>0.7461046834715842</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.24530093854680088</v>
+        <v>0.22674628658417068</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7879275517168626</v>
+        <v>0.7703401569843271</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7957700404533685</v>
+        <v>0.787710076510872</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8791766269538126</v>
+        <v>0.8773831415321481</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.30213305980308935</v>
+        <v>0.2919261819187813</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.8964412577855505</v>
+        <v>3.710539170038436</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.005036496803641583</v>
+        <v>0.0051871528713775756</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.03673025207112166</v>
+        <v>0.042118893511828334</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.24160310952184766</v>
+        <v>0.2348431725944976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7920111503200395</v>
+        <v>0.7462074810536943</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8014252319186698</v>
+        <v>0.7843334148338761</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8829977835543846</v>
+        <v>0.8746938169403072</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3095981636140864</v>
+        <v>0.28779364083044745</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.03588653111472</v>
+        <v>3.636786914531608</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.004935709623632657</v>
+        <v>0.00554126100076652</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.036377439002139175</v>
+        <v>0.042458689776841044</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.24160310952184766</v>
+        <v>0.2287250516568706</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7917484151536112</v>
+        <v>0.7492578475470377</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7994622856951695</v>
+        <v>0.7846019610336449</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8807447538967222</v>
+        <v>0.8748760407480667</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.30697759835691446</v>
+        <v>0.2881193012363369</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.9865931875534137</v>
+        <v>3.6425678005183633</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.004955872138084966</v>
+        <v>0.005468607708897235</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03623859359255426</v>
+        <v>0.04239688109714638</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.24160310952184766</v>
+        <v>0.2287250516568706</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7940316029638854</v>
+        <v>0.788744618378975</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8034640418440411</v>
+        <v>0.8125811311977127</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8834610348211458</v>
+        <v>0.900238840770902</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3123538835485104</v>
+        <v>0.32511685926368855</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>4.0881274316553355</v>
+        <v>4.335642064166567</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.004887977573280842</v>
+        <v>0.0048549266974174205</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03586164201533527</v>
+        <v>0.057042651102751765</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.24591268517606224</v>
+        <v>0.2348431725944976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.79123324321646</v>
+        <v>0.7618754476166612</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8045601543700086</v>
+        <v>0.7884365706643967</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8773139765827301</v>
+        <v>0.882289698704303</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3138499180666135</v>
+        <v>0.2928261443247185</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.116663885895662</v>
+        <v>3.7267148350752937</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.004972295388982886</v>
+        <v>0.005154427561719504</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.038810723897944766</v>
+        <v>0.06240010794767294</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.24160310952184766</v>
+        <v>0.2238348281725565</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.79361778274489</v>
+        <v>0.7688785280244523</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8073393990886342</v>
+        <v>0.7940481609122308</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8794933736628876</v>
+        <v>0.884298449510494</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.31768946037546975</v>
+        <v>0.2999107676440678</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.190474831229523</v>
+        <v>3.8555041044029545</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.004926045985116605</v>
+        <v>0.004985691462384598</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.038531633360080926</v>
+        <v>0.06086446748924016</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.24160310952184766</v>
+        <v>0.22570450523821567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7948852157286681</v>
+        <v>0.7705127584535243</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8132731696177165</v>
+        <v>0.8049467645490164</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.862170495306321</v>
+        <v>0.9029966533743412</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.32611612570385984</v>
+        <v>0.3143800293936938</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.35541677622178</v>
+        <v>4.1268054984471005</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.004864305919782943</v>
+        <v>0.005027029395215291</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.031093010492552628</v>
+        <v>0.06777602584913506</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2582816492765662</v>
+        <v>0.2238348281725565</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7975560556574034</v>
+        <v>0.7736213753689245</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8134797814986983</v>
+        <v>0.8078056788142363</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8624022656443725</v>
+        <v>0.9036864421613608</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3264153228208922</v>
+        <v>0.3183402195673089</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.361349070009913</v>
+        <v>4.2030673634392075</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.004797321126633573</v>
+        <v>0.0049134450469627165</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.031043491966438453</v>
+        <v>0.06644869282239016</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2582816492765662</v>
+        <v>0.22570450523821567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.80492926486885</v>
+        <v>0.7547871273773492</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8176704619621084</v>
+        <v>0.7926112385722586</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9074787153613274</v>
+        <v>0.872173748113305</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3325707265165703</v>
+        <v>0.29807387107783045</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.48457485693942</v>
+        <v>3.8218620580769564</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.004708173555621109</v>
+        <v>0.005302585756601682</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04404400108745742</v>
+        <v>0.06193805373394618</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.24662127629035774</v>
+        <v>0.22570450523821567</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8035105190943526</v>
+        <v>0.7572094567098002</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8163668912236426</v>
+        <v>0.7949485547372448</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.90659603410914</v>
+        <v>0.8742301281725419</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3306380893726476</v>
+        <v>0.3010699415754654</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.44564107564</v>
+        <v>3.8768249290737224</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.004714394990144613</v>
+        <v>0.00526445014449281</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.043850191504357046</v>
+        <v>0.06180412949147714</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.23580567132451463</v>
+        <v>0.2240511036509008</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6674738935308144</v>
+        <v>0.6883820320467083</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7123028530832363</v>
+        <v>0.6676245366698151</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6914313902584162</v>
+        <v>0.6914652185935222</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5831920169321975</v>
+        <v>0.6566169790215001</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.43751482096277</v>
+        <v>0.23582443653618032</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1131209389357788</v>
+        <v>0.4245633481172809</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6272027746066472</v>
+        <v>0.7221966206194582</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6690498648098839</v>
+        <v>0.6920303588202248</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6413675727641992</v>
+        <v>0.7204093687191678</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5245866561098521</v>
+        <v>0.5845971612813418</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.9395304718994546</v>
+        <v>0.8854092526690391</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2337732606958056</v>
+        <v>1.6698030449949213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6352129308184908</v>
+        <v>0.7200937930370749</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.684233481971515</v>
+        <v>0.6901070845495818</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6604705102769332</v>
+        <v>0.718441695983194</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5509399181608435</v>
+        <v>0.5719527646775429</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.514109556556794</v>
+        <v>0.9354685646500593</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0499175988025673</v>
+        <v>1.7629073428230442</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6109052789107372</v>
+        <v>0.3331824659576371</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6530831582474519</v>
+        <v>0.47160815086346264</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6242544799225024</v>
+        <v>0.39718835531413077</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5025137733560532</v>
+        <v>0.31127580516340436</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.905145838273654</v>
+        <v>0.9658362989323843</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2627019100675354</v>
+        <v>0.18167105662684527</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.63609386924719</v>
+        <v>0.5960146450158809</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6444150988197017</v>
+        <v>0.6623095689654733</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6231186668104675</v>
+        <v>0.6284973453811306</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5266732182335484</v>
+        <v>0.48649902886273383</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.1595921271045766</v>
+        <v>3.4391459074733097</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3237355230288697</v>
+        <v>1.1108624609014752</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6142029955705688</v>
+        <v>0.551218323270971</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.622168699752169</v>
+        <v>0.6204694388763133</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5978868878198391</v>
+        <v>0.5830999032419744</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5068720306045388</v>
+        <v>0.42006941853952495</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.9691723974389377</v>
+        <v>3.941399762752076</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2579908165833076</v>
+        <v>1.2310765756913298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6445981515550597</v>
+        <v>0.5857384019371668</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5733444012748463</v>
+        <v>0.5350173595476896</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5922826299239063</v>
+        <v>0.43442225138883417</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5032955939280094</v>
+        <v>0.4245425406037391</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.8849893289068058</v>
+        <v>1.4683274021352313</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.6695182627706744</v>
+        <v>1.5347208954421492</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6433760598509441</v>
+        <v>0.5375897074711815</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5716108460930203</v>
+        <v>0.5116294016319416</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5904143728993158</v>
+        <v>0.4102757690573068</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.49227372091550436</v>
+        <v>0.3877512856991216</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.9350248992174531</v>
+        <v>2.332858837485172</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.7626068556291308</v>
+        <v>1.3645104310423657</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5583286579254586</v>
+        <v>0.6517163390717943</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.535946291304819</v>
+        <v>0.6313177208282693</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.436351611631145</v>
+        <v>0.6096324329346594</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.4119955254144252</v>
+        <v>0.5301981003397361</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.4676310173108844</v>
+        <v>2.1601423487544484</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5346899224068453</v>
+        <v>1.3238084804376642</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
-        <v>4217.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5420793524157203</v>
+        <v>0.6334484084550804</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5471440366864156</v>
+        <v>0.6136236284641808</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.45007189069549297</v>
+        <v>0.589140993455643</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4112995707304585</v>
+        <v>0.5149464606932391</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.332226701446526</v>
+        <v>1.969632265717675</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3644954436592815</v>
+        <v>1.258112066928115</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.0346217690301162</v>
+        <v>0.7641755634638197</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.058572444866018494</v>
+        <v>0.23582443653618032</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.008062603746739389</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.33696940953284327</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.45695992411667063</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.10481384870761205</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.0346217690301162</v>
+        <v>0.7641755634638197</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.006876926725160067</v>
+        <v>0.01494661921708185</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.04647853924590942</v>
+        <v>0.0030842230130486356</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.26606592364239984</v>
+        <v>0.06073546856465006</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.1882855110267963</v>
+        <v>0.10320284697508897</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.4576713303296182</v>
+        <v>0.05385527876631079</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.020393644771164336</v>
+        <v>0.7641755634638197</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.05430400758833294</v>
+        <v>0.006880189798339265</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.02015650936684847</v>
+        <v>0.011387900355871887</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3217927436566279</v>
+        <v>0.06429418742586003</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.46265117382025134</v>
+        <v>0.05338078291814947</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.12070192079677496</v>
+        <v>0.09988137603795967</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.020393644771164336</v>
+        <v>0.03416370106761566</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.02347640502727057</v>
+        <v>0.9658362989323843</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.06023239269622955</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.323452691486839</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.07137775669907517</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5010671093194214</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.1809343134930045</v>
+        <v>0.03416370106761566</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.08442020393644771</v>
+        <v>0.058600237247924084</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.31041024424946645</v>
+        <v>0.008066429418742586</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.24258951861512923</v>
+        <v>0.33712930011862396</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.18164571970595209</v>
+        <v>0.4571767497034401</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.10486358244365362</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.20203936447711643</v>
+        <v>0.03416370106761566</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.07849181882855111</v>
+        <v>0.006880189798339265</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.39008774009959685</v>
+        <v>0.0465005931198102</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.20701920796774959</v>
+        <v>0.2661921708185053</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.122361868626986</v>
+        <v>0.18837485172004745</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.4578884934756821</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7642874081100308</v>
+        <v>0.44460260972716487</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.014939530471899455</v>
+        <v>0.12787663107947805</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.003082760256106237</v>
+        <v>0.06500593119810201</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.06070666350486128</v>
+        <v>0.23962040332147094</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.10315390087740099</v>
+        <v>0.1228944246737841</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.05382973677970121</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7642874081100308</v>
+        <v>0.17983392645314353</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.006876926725160067</v>
+        <v>0.11055753262158956</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.01138249940716149</v>
+        <v>0.07615658362989323</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.06426369456959924</v>
+        <v>0.4638196915776987</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.05335546597106948</v>
+        <v>0.16963226571767498</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.0998340052169789</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.44486601849656154</v>
+        <v>0.18102016607354685</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.12781598292625088</v>
+        <v>0.08398576512455516</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.06497510078254684</v>
+        <v>0.3105575326215896</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.239506758359023</v>
+        <v>0.24270462633451959</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.12283613943561773</v>
+        <v>0.18173190984578885</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.1797486364714252</v>
+        <v>0.20213523131672598</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.11097936921982451</v>
+        <v>0.07805456702253856</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.07612046478539246</v>
+        <v>0.3902728351126928</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4635997154375148</v>
+        <v>0.20711743772241992</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.16955181408584302</v>
+        <v>0.12241992882562278</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
